--- a/trainlabel.xlsx
+++ b/trainlabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9809525D-38A7-4C6C-B77D-344D0A07408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E432E-65E9-49D9-BCE9-CF667783A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5858" yWindow="4095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12472" yWindow="3090" windowWidth="13201" windowHeight="9112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204:B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -933,6 +933,1110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>101</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>102</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>103</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>104</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>105</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>106</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>107</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>108</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>110</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>111</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>112</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>113</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>114</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>115</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>116</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>117</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>118</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>119</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>120</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>121</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>122</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>123</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>124</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>125</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>126</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>127</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>128</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>129</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>131</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>132</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>133</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>134</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>135</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>136</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>183</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>184</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>185</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>186</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>187</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>188</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>189</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>190</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>191</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>192</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>193</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>194</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>195</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>196</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>197</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>198</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>199</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>200</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>201</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>202</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>203</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>204</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>205</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>206</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>207</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>208</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>209</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>210</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>211</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>212</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>213</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>214</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>215</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>216</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>217</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>218</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>219</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>220</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>221</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>222</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>223</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>224</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>225</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>226</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>227</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>228</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>229</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>230</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>231</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>232</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>233</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>234</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>235</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>236</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>237</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>238</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>239</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>240</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>241</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>242</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>243</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>244</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>245</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>246</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>247</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>248</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>249</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>250</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>251</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>252</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>253</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>254</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>255</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>256</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>257</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>258</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>259</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>260</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>261</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>262</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>263</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>264</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>265</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>266</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>267</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>268</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>269</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>270</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>271</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>272</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>273</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>274</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>275</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>276</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>277</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>278</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>279</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>280</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>281</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>282</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>283</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>284</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trainlabel.xlsx
+++ b/trainlabel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E432E-65E9-49D9-BCE9-CF667783A152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC26376-F29C-4293-ABEE-674EA6727713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12472" yWindow="3090" windowWidth="13201" windowHeight="9112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5715" yWindow="6008" windowWidth="17625" windowHeight="11617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204:B209"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -378,7 +378,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -386,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -394,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -402,7 +402,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -426,60 +426,60 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -487,15 +487,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -511,39 +511,39 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -575,15 +575,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -591,63 +591,63 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -663,55 +663,55 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -719,23 +719,23 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -743,47 +743,47 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -791,15 +791,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -807,23 +807,23 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -831,47 +831,47 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -895,23 +895,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -927,15 +927,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -951,15 +951,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -975,63 +975,63 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1047,15 +1047,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1063,15 +1063,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1087,31 +1087,31 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -1119,15 +1119,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1135,31 +1135,31 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1183,15 +1183,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1207,23 +1207,23 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1239,23 +1239,23 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1263,23 +1263,23 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1287,15 +1287,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1319,223 +1319,223 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>221</v>
+        <v>383</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>222</v>
+        <v>384</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>224</v>
+        <v>405</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>225</v>
+        <v>407</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>226</v>
+        <v>421</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>227</v>
+        <v>423</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>228</v>
+        <v>424</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>232</v>
+        <v>443</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>235</v>
+        <v>457</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>236</v>
+        <v>462</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>237</v>
+        <v>467</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>238</v>
+        <v>472</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>239</v>
+        <v>478</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>240</v>
+        <v>484</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>241</v>
+        <v>485</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>242</v>
+        <v>486</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -1703,338 +1703,10 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>243</v>
+        <v>488</v>
       </c>
       <c r="B168">
         <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A169">
-        <v>244</v>
-      </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A170">
-        <v>245</v>
-      </c>
-      <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A171">
-        <v>246</v>
-      </c>
-      <c r="B171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A172">
-        <v>247</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A173">
-        <v>248</v>
-      </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A174">
-        <v>249</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A175">
-        <v>250</v>
-      </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A176">
-        <v>251</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A177">
-        <v>252</v>
-      </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A178">
-        <v>253</v>
-      </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A179">
-        <v>254</v>
-      </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A180">
-        <v>255</v>
-      </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A181">
-        <v>256</v>
-      </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A182">
-        <v>257</v>
-      </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A183">
-        <v>258</v>
-      </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A184">
-        <v>259</v>
-      </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A185">
-        <v>260</v>
-      </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A186">
-        <v>261</v>
-      </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A187">
-        <v>262</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A188">
-        <v>263</v>
-      </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A189">
-        <v>264</v>
-      </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A190">
-        <v>265</v>
-      </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A191">
-        <v>266</v>
-      </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A192">
-        <v>267</v>
-      </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A193">
-        <v>268</v>
-      </c>
-      <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A194">
-        <v>269</v>
-      </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A195">
-        <v>270</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A196">
-        <v>271</v>
-      </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A197">
-        <v>272</v>
-      </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A198">
-        <v>273</v>
-      </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A199">
-        <v>274</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A200">
-        <v>275</v>
-      </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A201">
-        <v>276</v>
-      </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A202">
-        <v>277</v>
-      </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A203">
-        <v>278</v>
-      </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A204">
-        <v>279</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A205">
-        <v>280</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A206">
-        <v>281</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A207">
-        <v>282</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A208">
-        <v>283</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A209">
-        <v>284</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/trainlabel.xlsx
+++ b/trainlabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcao1\PycharmProjects\aiProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC26376-F29C-4293-ABEE-674EA6727713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C0FC59-63C1-434F-9625-4F641084B6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="6008" windowWidth="17625" windowHeight="11617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16222" windowHeight="13537" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>label</t>
+    <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,25 +357,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:XFD168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A151" sqref="A2:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>1</v>
+        <v>0.94289380814886103</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -383,1330 +383,3194 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>0.90041601664066562</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
+        <v>0.83600889108421828</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
+        <v>0.8491525423728814</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>0.91035611952517403</v>
+      </c>
+      <c r="B6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>0.9014742898238044</v>
+      </c>
+      <c r="B7">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
+        <v>0.90806826997672618</v>
+      </c>
+      <c r="B8">
         <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>9</v>
+        <v>0.81703235403495722</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>10</v>
+        <v>0.81562099871959026</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>11</v>
+        <v>0.8542199488491049</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>12</v>
+        <v>0.79140904653433131</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>13</v>
+        <v>0.91861096039066736</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>14</v>
+        <v>0.93415637860082301</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>15</v>
+        <v>0.88292890591741169</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>16</v>
+        <v>0.88852930600503421</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>17</v>
+        <v>0.89422610383309076</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>18</v>
+        <v>0.92297979797979801</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>21</v>
+        <v>0.71677559912854028</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>23</v>
+        <v>0.89033457249070636</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>24</v>
+        <v>0.7940327237728585</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>25</v>
+        <v>0.80379256965944268</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>26</v>
+        <v>0.81296023564064801</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>29</v>
+        <v>0.94056847545219635</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>30</v>
+        <v>0.86087740384615385</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>32</v>
+        <v>0.89027431421446379</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>33</v>
+        <v>0.86812764321414837</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>34</v>
+        <v>0.91142191142191142</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>35</v>
+        <v>0.86049434436531214</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>37</v>
+        <v>0.87825696316262358</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>38</v>
+        <v>0.90156250000000004</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>39</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>40</v>
+        <v>0.90402930402930404</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>42</v>
+        <v>0.75789473684210529</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>45</v>
+        <v>0.95156150414276597</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>46</v>
+        <v>0.88128772635814889</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>47</v>
+        <v>0.97470641373080402</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>48</v>
+        <v>0.95942647956070759</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>49</v>
+        <v>0.91603305785123956</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>50</v>
+        <v>0.95530726256983245</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>51</v>
+        <v>0.93627216099664601</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>53</v>
+        <v>0.8240660295395309</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>54</v>
+        <v>0.90936354548483844</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>55</v>
+        <v>0.75377643504531722</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>56</v>
+        <v>0.84336525307797539</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>57</v>
+        <v>0.74277315041646252</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>58</v>
+        <v>0.88715277777777779</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>59</v>
+        <v>0.89302884615384615</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>61</v>
+        <v>0.94164456233421756</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>62</v>
+        <v>0.77916666666666667</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>63</v>
+        <v>0.96160962072155398</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>64</v>
+        <v>0.96978417266187056</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>65</v>
+        <v>0.87601078167115898</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>66</v>
+        <v>0.8422712933753943</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>67</v>
+        <v>0.93115519253208878</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>69</v>
+        <v>0.88950789229340765</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>70</v>
+        <v>0.83906186817630413</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>71</v>
+        <v>0.6656497864551556</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>73</v>
+        <v>0.68544600938967137</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>74</v>
+        <v>0.56977777777777783</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>75</v>
+        <v>0.78447024673439769</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>76</v>
+        <v>0.88592684438933667</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>78</v>
+        <v>0.80310880829015541</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>80</v>
+        <v>0.78998384491114704</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>81</v>
+        <v>0.87848101265822787</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>82</v>
+        <v>0.85448392554991537</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>83</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>84</v>
+        <v>0.92445670921007239</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>86</v>
+        <v>0.78412391093901257</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>88</v>
+        <v>0.72987974098057351</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>89</v>
+        <v>0.89098712446351935</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>90</v>
+        <v>0.90743476120137878</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>92</v>
+        <v>0.8916990920881972</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>93</v>
+        <v>0.94663964876730844</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>94</v>
+        <v>0.94990215264187883</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>95</v>
+        <v>0.98682532936676581</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>96</v>
+        <v>0.88823181549379071</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>97</v>
+        <v>0.58118081180811809</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>100</v>
+        <v>0.87430555555555556</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>102</v>
+        <v>0.87632508833922262</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>104</v>
+        <v>0.83741061347384271</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>105</v>
+        <v>0.82180851063829785</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>107</v>
+        <v>0.81757754800590843</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>108</v>
+        <v>0.92326530612244895</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>109</v>
+        <v>0.93323274236137321</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>110</v>
+        <v>0.90824575586095402</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>112</v>
+        <v>0.78113663845223702</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>113</v>
+        <v>0.83614232209737827</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>115</v>
+        <v>0.95432603044931319</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>116</v>
+        <v>0.90466988727858277</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>117</v>
+        <v>0.78112449799196793</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>118</v>
+        <v>0.77355072463768115</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>119</v>
+        <v>0.89107289107289112</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>120</v>
+        <v>0.8512861736334405</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>121</v>
+        <v>0.96560027519779845</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>122</v>
+        <v>0.85303265940902018</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>123</v>
+        <v>0.89295863593305969</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>124</v>
+        <v>0.92155612244897955</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>125</v>
+        <v>0.92087912087912083</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>127</v>
+        <v>0.96280400572246061</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>128</v>
+        <v>0.86052998605299857</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>129</v>
+        <v>0.77495987158908508</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>130</v>
+        <v>0.9090401785714286</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>131</v>
+        <v>0.87512899896800822</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>132</v>
+        <v>0.82597402597402603</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>133</v>
+        <v>0.6156274664561957</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>134</v>
+        <v>0.93959183673469404</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>135</v>
+        <v>0.9046008119079838</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>136</v>
+        <v>0.86777583187390539</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>137</v>
+        <v>0.6063492063492063</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>138</v>
+        <v>0.78642028362698757</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>140</v>
+        <v>0.81569965870307171</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>141</v>
+        <v>0.80332739156268573</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>142</v>
+        <v>0.80390683696468823</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>143</v>
+        <v>0.8076319916361735</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>144</v>
+        <v>0.7749049429657795</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>145</v>
+        <v>0.85921052631578942</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>146</v>
+        <v>0.87704555506413096</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>147</v>
+        <v>0.92740414833438078</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>148</v>
+        <v>0.8877786318216756</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>150</v>
+        <v>0.76675257731958768</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>156</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>158</v>
+        <v>0.94335389792484581</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>160</v>
+        <v>0.83876404494382018</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>163</v>
+        <v>0.86012207527975582</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>170</v>
+        <v>0.91006711409395957</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>175</v>
+        <v>0.91038525963149075</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>176</v>
+        <v>0.78982597054886217</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>177</v>
+        <v>0.7813852813852814</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>181</v>
+        <v>0.88727524204702624</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>182</v>
+        <v>0.87593582887700538</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>184</v>
+        <v>0.88694852941176472</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>193</v>
+        <v>0.9508196721311476</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>194</v>
+        <v>0.80608504398826974</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>204</v>
+        <v>0.83366434955312807</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>205</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>214</v>
+        <v>0.55428571428571427</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>231</v>
+        <v>0.74231678486997632</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>232</v>
+        <v>0.74231678486997632</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>239</v>
+        <v>0.54153522607781279</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>241</v>
+        <v>0.9024759979787772</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>252</v>
+        <v>0.96969696969696961</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>253</v>
+        <v>0.71543778801843316</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>254</v>
+        <v>0.30932412432165762</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>378</v>
+        <v>0.41425546930134088</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>383</v>
+        <v>0.55882352941176472</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>384</v>
+        <v>0.56136680613668066</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>402</v>
+        <v>0.58475426278836506</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>405</v>
+        <v>0.79659574468085104</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>407</v>
+        <v>0.86720867208672092</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>421</v>
+        <v>0.96343692870201081</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>423</v>
+        <v>0.97418630751964075</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>424</v>
+        <v>0.875</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>428</v>
+        <v>0.83811285846438488</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>432</v>
+        <v>0.92351476342938443</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>438</v>
+        <v>0.90356798457087761</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>443</v>
+        <v>0.90956651718983561</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>454</v>
+        <v>0.85858585858585856</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>455</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>457</v>
+        <v>0.84730803177405123</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>462</v>
+        <v>0.26706586826347301</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>467</v>
+        <v>0.5624603677869372</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>472</v>
+        <v>0.70668006027122054</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>478</v>
+        <v>0.70557029177718833</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>484</v>
+        <v>0.66284201235657547</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>485</v>
+        <v>0.85414534288638688</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>486</v>
+        <v>0.9797297297297296</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>488</v>
+        <v>0.95163584637268839</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>0.85964060223409422</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>0.88021139166177331</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>0.97866108786610884</v>
+      </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>0.92307692307692324</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>0.71985058697972248</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>0.82552301255230121</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>0.64872727272727271</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>0.87389510901591039</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>0.9360301034807148</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>0.87336814621409919</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>0.73135964912280704</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>0.90690817186183659</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>0.90113325517780385</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>0.77355072463768115</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>0.86817325800376643</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>0.7521891418563923</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>0.81710681907765081</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>0.86897274633123689</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>0.93916998294485499</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>0.93042336724647201</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>0.92541613316261195</v>
+      </c>
+      <c r="B190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>0.85904027420736928</v>
+      </c>
+      <c r="B191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>0.89790305947060844</v>
+      </c>
+      <c r="B192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>0.84880083420229402</v>
+      </c>
+      <c r="B193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>0.90448113207547165</v>
+      </c>
+      <c r="B194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>0.93957968476357279</v>
+      </c>
+      <c r="B195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>0.77894736842105261</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>0.8067796610169492</v>
+      </c>
+      <c r="B197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>0.9211175020542316</v>
+      </c>
+      <c r="B198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>0.92875816993464055</v>
+      </c>
+      <c r="B199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>0.95318352059925082</v>
+      </c>
+      <c r="B200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>0.94358766233766245</v>
+      </c>
+      <c r="B201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>0.91251682368775244</v>
+      </c>
+      <c r="B202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>0.97974838907640383</v>
+      </c>
+      <c r="B203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>0.94344473007712082</v>
+      </c>
+      <c r="B204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>0.9015151515151516</v>
+      </c>
+      <c r="B205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>0.93021411578112601</v>
+      </c>
+      <c r="B206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>0.94056224899598395</v>
+      </c>
+      <c r="B207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>0.82413087934560325</v>
+      </c>
+      <c r="B208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>0.91540577716643756</v>
+      </c>
+      <c r="B209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>0.87712058688674921</v>
+      </c>
+      <c r="B210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>0.87649964714184903</v>
+      </c>
+      <c r="B211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>0.82783018867924529</v>
+      </c>
+      <c r="B212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>0.66966966966966968</v>
+      </c>
+      <c r="B213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>0.30932412432165762</v>
+      </c>
+      <c r="B214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>0.59151943462897527</v>
+      </c>
+      <c r="B215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>0.6725636250775916</v>
+      </c>
+      <c r="B216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>0.57946458827516101</v>
+      </c>
+      <c r="B217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>0.89860515021459231</v>
+      </c>
+      <c r="B218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>0.928494430470715</v>
+      </c>
+      <c r="B219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>0.87851585876720528</v>
+      </c>
+      <c r="B220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>0.92191332788225677</v>
+      </c>
+      <c r="B221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>0.87694300518134716</v>
+      </c>
+      <c r="B222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>0.79511278195488722</v>
+      </c>
+      <c r="B223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>0.87938060309698451</v>
+      </c>
+      <c r="B224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>0.91674550614947958</v>
+      </c>
+      <c r="B225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="B226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>0.93016599885518036</v>
+      </c>
+      <c r="B227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>0.91602209944751378</v>
+      </c>
+      <c r="B228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>0.94167306216423641</v>
+      </c>
+      <c r="B229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>0.92234206471494595</v>
+      </c>
+      <c r="B230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>0.96809282088469917</v>
+      </c>
+      <c r="B231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>0.92404227212681644</v>
+      </c>
+      <c r="B232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>0.91133656815174235</v>
+      </c>
+      <c r="B233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>0.88672566371681416</v>
+      </c>
+      <c r="B234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>0.91911021233569257</v>
+      </c>
+      <c r="B235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>0.86967741935483867</v>
+      </c>
+      <c r="B236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>0.95284501729016036</v>
+      </c>
+      <c r="B237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>0.94927768860353123</v>
+      </c>
+      <c r="B238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>0.70952659263588547</v>
+      </c>
+      <c r="B239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>0.8230593607305936</v>
+      </c>
+      <c r="B240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>0.87909552376557454</v>
+      </c>
+      <c r="B241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="B242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>0.85441259134345138</v>
+      </c>
+      <c r="B243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>0.51198630136986301</v>
+      </c>
+      <c r="B244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>0.92885202968136182</v>
+      </c>
+      <c r="B245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>0.93512605042016805</v>
+      </c>
+      <c r="B246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>0.89020771513353114</v>
+      </c>
+      <c r="B247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>0.91259105098855364</v>
+      </c>
+      <c r="B248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>0.92332789559543238</v>
+      </c>
+      <c r="B249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>0.91344383057090239</v>
+      </c>
+      <c r="B250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>0.89338937714940769</v>
+      </c>
+      <c r="B251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>0.84258854394403149</v>
+      </c>
+      <c r="B252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>0.94914947520810722</v>
+      </c>
+      <c r="B253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>0.93121019108280256</v>
+      </c>
+      <c r="B254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>0.94487320837927236</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>0.90580688723835245</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>0.91931330472103001</v>
+      </c>
+      <c r="B257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>0.94290657439446357</v>
+      </c>
+      <c r="B258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>0.72200772200772201</v>
+      </c>
+      <c r="B259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>0.90525982256020276</v>
+      </c>
+      <c r="B260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>0.92967884828349945</v>
+      </c>
+      <c r="B261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>0.95897435897435901</v>
+      </c>
+      <c r="B262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>0.76836492890995256</v>
+      </c>
+      <c r="B263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>0.85958173282116945</v>
+      </c>
+      <c r="B264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>0.51014492753623186</v>
+      </c>
+      <c r="B265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>0.8190567853705486</v>
+      </c>
+      <c r="B266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>0.82854042322300592</v>
+      </c>
+      <c r="B267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>0.81861804222648749</v>
+      </c>
+      <c r="B268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>0.88630952380952377</v>
+      </c>
+      <c r="B269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>0.9033816425120772</v>
+      </c>
+      <c r="B270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>0.86888990406578348</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>0.87294297742058935</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>0.99121447028423759</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>0.99707259953161598</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>0.91652397260273977</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>0.93250301325833684</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>0.90679766330323963</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>0.97897623400365641</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>0.93986820428336082</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>0.88337853545137546</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>0.89217032967032972</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>0.90163934426229519</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>0.87893864013266998</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>0.84922178988326846</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>0.91408934707903777</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>0.87491727332892122</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>0.84693333333333332</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>0.84494382022471914</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>0.81834293309703143</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>0.78805677924620654</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>0.89980198019801982</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>0.90337146297411197</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>0.89292929292929291</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>0.95107821049243635</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>0.83004926108374388</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>0.41999123191582638</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>0.95123658422771817</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>0.88253382533825342</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>0.85829115808276268</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>0.8205461638491548</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>0.82627118644067798</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>0.95706440339490761</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>0.91052195526097757</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>0.76390465380249717</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>0.90695573622402881</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>0.70385674931129472</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>0.72147651006711411</v>
+      </c>
+      <c r="B307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>0.93690579083837522</v>
+      </c>
+      <c r="B308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>0.79380603096984514</v>
+      </c>
+      <c r="B309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>0.89119638826185099</v>
+      </c>
+      <c r="B310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>0.86581291759465484</v>
+      </c>
+      <c r="B311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>0.8209342560553633</v>
+      </c>
+      <c r="B312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>0.89900811541929671</v>
+      </c>
+      <c r="B313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>0.89897904352498659</v>
+      </c>
+      <c r="B314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>0.8005269100489274</v>
+      </c>
+      <c r="B315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>0.89055299539170507</v>
+      </c>
+      <c r="B316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>0.93678598629093679</v>
+      </c>
+      <c r="B317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>0.74082568807339455</v>
+      </c>
+      <c r="B318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>0.90542635658914716</v>
+      </c>
+      <c r="B319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>0.95208131655372696</v>
+      </c>
+      <c r="B320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>0.83770014556040762</v>
+      </c>
+      <c r="B321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>0.90974729241877261</v>
+      </c>
+      <c r="B322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>0.77158395649218214</v>
+      </c>
+      <c r="B323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>0.85553047404063209</v>
+      </c>
+      <c r="B324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>0.8159838817998657</v>
+      </c>
+      <c r="B325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>0.79664723032069973</v>
+      </c>
+      <c r="B326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>0.76439326837909649</v>
+      </c>
+      <c r="B327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>0.85408667032364238</v>
+      </c>
+      <c r="B328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>0.9120351859256296</v>
+      </c>
+      <c r="B329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>0.90872483221476519</v>
+      </c>
+      <c r="B330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>0.92963464140730723</v>
+      </c>
+      <c r="B331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>0.79883570504527812</v>
+      </c>
+      <c r="B332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>0.79683377308707126</v>
+      </c>
+      <c r="B333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>0.90464240903387705</v>
+      </c>
+      <c r="B334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>0.91660461653015635</v>
+      </c>
+      <c r="B335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>0.93318089430894324</v>
+      </c>
+      <c r="B336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>0.9613173026659696</v>
+      </c>
+      <c r="B337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A338">
+        <v>0.94115872057936045</v>
+      </c>
+      <c r="B338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A339">
+        <v>0.9142724745134384</v>
+      </c>
+      <c r="B339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A340">
+        <v>0.89840788476118272</v>
+      </c>
+      <c r="B340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A341">
+        <v>0.83481063658340049</v>
+      </c>
+      <c r="B341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A342">
+        <v>0.93141486810551555</v>
+      </c>
+      <c r="B342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A343">
+        <v>0.79428117553613975</v>
+      </c>
+      <c r="B343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A344">
+        <v>0.93246311010215677</v>
+      </c>
+      <c r="B344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A345">
+        <v>0.96031229668184781</v>
+      </c>
+      <c r="B345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A346">
+        <v>0.92865362485615643</v>
+      </c>
+      <c r="B346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A347">
+        <v>0.83206106870229013</v>
+      </c>
+      <c r="B347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A348">
+        <v>0.82149532710280371</v>
+      </c>
+      <c r="B348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A349">
+        <v>0.86582515194015897</v>
+      </c>
+      <c r="B349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A350">
+        <v>0.96709511568123396</v>
+      </c>
+      <c r="B350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A351">
+        <v>0.86720867208672092</v>
+      </c>
+      <c r="B351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A352">
+        <v>0.84471603163191944</v>
+      </c>
+      <c r="B352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A353">
+        <v>0.8720259552992069</v>
+      </c>
+      <c r="B353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A354">
+        <v>0.95152394775036275</v>
+      </c>
+      <c r="B354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A355">
+        <v>0.83383503913305235</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A356">
+        <v>0.87899635774989882</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A357">
+        <v>0.941929974380871</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A358">
+        <v>0.83371559633027525</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A359">
+        <v>0.86696562032884905</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A360">
+        <v>0.9237510955302366</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A361">
+        <v>0.74800290486564991</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A362">
+        <v>0.82310469314079426</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A363">
+        <v>0.93863393810032003</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A364">
+        <v>0.91447891805887038</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A365">
+        <v>0.83611532625189677</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A366">
+        <v>0.91770011273957164</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A367">
+        <v>0.83633934535738141</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A368">
+        <v>0.83737704918032785</v>
+      </c>
+      <c r="B368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A369">
+        <v>0.94776828110161437</v>
+      </c>
+      <c r="B369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A370">
+        <v>0.85654008438818563</v>
+      </c>
+      <c r="B370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A371">
+        <v>0.73667927122722587</v>
+      </c>
+      <c r="B371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A372">
+        <v>0.84983911333571682</v>
+      </c>
+      <c r="B372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A373">
+        <v>0.89900662251655628</v>
+      </c>
+      <c r="B373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A374">
+        <v>0.89167374681393374</v>
+      </c>
+      <c r="B374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A375">
+        <v>0.8402652200120555</v>
+      </c>
+      <c r="B375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A376">
+        <v>0.86371760500446826</v>
+      </c>
+      <c r="B376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A377">
+        <v>0.94730746960046319</v>
+      </c>
+      <c r="B377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A378">
+        <v>0.8697100966344552</v>
+      </c>
+      <c r="B378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A379">
+        <v>0.92211838006230518</v>
+      </c>
+      <c r="B379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A380">
+        <v>0.93875726419311578</v>
+      </c>
+      <c r="B380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A381">
+        <v>0.7368905243790248</v>
+      </c>
+      <c r="B381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A382">
+        <v>0.86662275646303311</v>
+      </c>
+      <c r="B382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A383">
+        <v>0.92715029078665445</v>
+      </c>
+      <c r="B383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A384">
+        <v>0.94393241167434716</v>
+      </c>
+      <c r="B384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A385">
+        <v>0.88481141692150866</v>
+      </c>
+      <c r="B385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A386">
+        <v>0.88616575298290878</v>
+      </c>
+      <c r="B386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A387">
+        <v>0.77114133648728567</v>
+      </c>
+      <c r="B387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A388">
+        <v>0.94266869609335358</v>
+      </c>
+      <c r="B388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A389">
+        <v>0.91324311261478963</v>
+      </c>
+      <c r="B389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A390">
+        <v>0.93441064638783278</v>
+      </c>
+      <c r="B390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A391">
+        <v>0.87083888149134492</v>
+      </c>
+      <c r="B391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A392">
+        <v>0.89630589760207391</v>
+      </c>
+      <c r="B392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A393">
+        <v>0.88298368298368302</v>
+      </c>
+      <c r="B393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A394">
+        <v>0.89991774060871954</v>
+      </c>
+      <c r="B394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A395">
+        <v>0.79525483304042177</v>
+      </c>
+      <c r="B395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>0.92296918767506997</v>
+      </c>
+      <c r="B396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A397">
+        <v>0.72135007849293564</v>
+      </c>
+      <c r="B397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A398">
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="B398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A399">
+        <v>0.86562296151337248</v>
+      </c>
+      <c r="B399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A400">
+        <v>0.94975041597337762</v>
+      </c>
+      <c r="B400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A401">
+        <v>0.95088967971530236</v>
+      </c>
+      <c r="B401">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
